--- a/ml/results/servers=13_vs_time_success=0.90.xlsx
+++ b/ml/results/servers=13_vs_time_success=0.90.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zachary/Desktop/Research/projects/mimosa_2022/MIMOSA/ml/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D707AC-C590-4F43-B12D-E442E4FC243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF30A4BD-BB48-3A40-8B60-3D21F5A99D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25900" windowHeight="15280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wrr" sheetId="1" r:id="rId1"/>
+    <sheet name="ideal" sheetId="1" r:id="rId1"/>
     <sheet name="random" sheetId="2" r:id="rId2"/>
     <sheet name="koth" sheetId="3" r:id="rId3"/>
     <sheet name="mimosa" sheetId="4" r:id="rId4"/>
@@ -128,31 +128,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t># of Servers vs Runtime</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -207,7 +182,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>random!$B$2:$B$14</c:f>
+              <c:f>mimosa!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -255,7 +230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wrr!$D$2:$D$14</c:f>
+              <c:f>ideal!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -281,29 +256,29 @@
                   <c:v>37534.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37534.300000000003</c:v>
+                  <c:v>35874.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37534.300000000003</c:v>
+                  <c:v>34928.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37534.300000000003</c:v>
+                  <c:v>30004.099999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37534.300000000003</c:v>
+                  <c:v>27837.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37534.300000000003</c:v>
+                  <c:v>19199.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37534.300000000003</c:v>
+                  <c:v>18334.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D371-1C40-83A5-90FB85EAA10F}"/>
+              <c16:uniqueId val="{00000000-1CDB-9B42-9B83-11833D94B8F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -325,7 +300,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>random!$B$2:$B$14</c:f>
+              <c:f>mimosa!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -378,50 +353,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>270098.90000000002</c:v>
+                  <c:v>321291.40000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141587.5</c:v>
+                  <c:v>166168.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103823.2</c:v>
+                  <c:v>119806.39999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80819</c:v>
+                  <c:v>91285.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68804.600000000006</c:v>
+                  <c:v>80672.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68160</c:v>
+                  <c:v>76767.400000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63647.8</c:v>
+                  <c:v>71123.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49363.3</c:v>
+                  <c:v>77834.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46884.7</c:v>
+                  <c:v>71585.500000000015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59780.2</c:v>
+                  <c:v>77739.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71383</c:v>
+                  <c:v>71662.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61714</c:v>
+                  <c:v>54093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65581.600000000006</c:v>
+                  <c:v>64582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D371-1C40-83A5-90FB85EAA10F}"/>
+              <c16:uniqueId val="{00000001-1CDB-9B42-9B83-11833D94B8F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -443,7 +418,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>random!$B$2:$B$14</c:f>
+              <c:f>mimosa!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -496,50 +471,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>112226.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>55606.499999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>50743.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>26664.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>27943.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>27673.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>26754.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>14583.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>14583.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>13623.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>14340.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>14173.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90190.900000000009</c:v>
+                  <c:v>14398.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D371-1C40-83A5-90FB85EAA10F}"/>
+              <c16:uniqueId val="{00000002-1CDB-9B42-9B83-11833D94B8F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -561,7 +536,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>random!$B$2:$B$14</c:f>
+              <c:f>mimosa!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -614,50 +589,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>199161.5</c:v>
+                  <c:v>200544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114198.8</c:v>
+                  <c:v>115182.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77013.899999999994</c:v>
+                  <c:v>75524.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70343.3</c:v>
+                  <c:v>69791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49861.599999999999</c:v>
+                  <c:v>48201.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45526.899999999987</c:v>
+                  <c:v>44470.399999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46173.2</c:v>
+                  <c:v>48643.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47661</c:v>
+                  <c:v>40997.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44176.3</c:v>
+                  <c:v>41058.399999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46468.1</c:v>
+                  <c:v>34802.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44503.7</c:v>
+                  <c:v>31675.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45518.399999999987</c:v>
+                  <c:v>22972.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45158.499999999993</c:v>
+                  <c:v>22357.200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D371-1C40-83A5-90FB85EAA10F}"/>
+              <c16:uniqueId val="{00000003-1CDB-9B42-9B83-11833D94B8F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -671,71 +646,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="326300096"/>
-        <c:axId val="326156176"/>
+        <c:axId val="1064750656"/>
+        <c:axId val="1064608368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="326300096"/>
+        <c:axId val="1064750656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of Servers</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -773,7 +693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326156176"/>
+        <c:crossAx val="1064608368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326156176"/>
+        <c:axId val="1064608368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,61 +721,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Runtime</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -887,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326300096"/>
+        <c:crossAx val="1064750656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1521,23 +1386,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07691934-0032-90EE-6E08-3E25DADAFEE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7742D0-7850-16EA-8551-A9B731681F72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,10 +1855,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.87424575332491594</v>
+        <v>0.87424575332491616</v>
       </c>
       <c r="D9">
-        <v>37534.300000000003</v>
+        <v>35874.9</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2010,7 +1875,7 @@
         <v>0.87424575332491594</v>
       </c>
       <c r="D10">
-        <v>37534.300000000003</v>
+        <v>34928.699999999997</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2027,7 +1892,7 @@
         <v>0.87424575332491594</v>
       </c>
       <c r="D11">
-        <v>37534.300000000003</v>
+        <v>30004.099999999991</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2044,7 +1909,7 @@
         <v>0.87424575332491594</v>
       </c>
       <c r="D12">
-        <v>37534.300000000003</v>
+        <v>27837.200000000001</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2061,7 +1926,7 @@
         <v>0.87424575332491594</v>
       </c>
       <c r="D13">
-        <v>37534.300000000003</v>
+        <v>19199.900000000001</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2075,10 +1940,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.87424575332491594</v>
+        <v>0.87424575332491572</v>
       </c>
       <c r="D14">
-        <v>37534.300000000003</v>
+        <v>18334.400000000001</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2119,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.54174204782538027</v>
+        <v>0.62662322961736949</v>
       </c>
       <c r="D2">
-        <v>270098.90000000002</v>
+        <v>321291.40000000008</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2136,13 +2001,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.54289800648512676</v>
+        <v>0.50424252089723576</v>
       </c>
       <c r="D3">
-        <v>141587.5</v>
+        <v>166168.4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,13 +2018,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.55423986048480789</v>
+        <v>0.46550020356613953</v>
       </c>
       <c r="D4">
-        <v>103823.2</v>
+        <v>119806.39999999999</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2170,13 +2035,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.54618278832852818</v>
+        <v>0.55968554946365778</v>
       </c>
       <c r="D5">
-        <v>80819</v>
+        <v>91285.7</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2187,13 +2052,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.53478038338508249</v>
+        <v>0.3856163506262949</v>
       </c>
       <c r="D6">
-        <v>68804.600000000006</v>
+        <v>80672.3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,13 +2069,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.55674906981729355</v>
+        <v>0.55893389273246041</v>
       </c>
       <c r="D7">
-        <v>68160</v>
+        <v>76767.400000000009</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.5503954174892699</v>
+        <v>0.38248587333914491</v>
       </c>
       <c r="D8">
-        <v>63647.8</v>
+        <v>71123.900000000009</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2238,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.55385661155675392</v>
+        <v>0.41308130458302678</v>
       </c>
       <c r="D9">
-        <v>49363.3</v>
+        <v>77834.900000000009</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,13 +2120,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.55658730273874057</v>
+        <v>0.51427557676233882</v>
       </c>
       <c r="D10">
-        <v>46884.7</v>
+        <v>71585.500000000015</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2272,13 +2137,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.53821022779119043</v>
+        <v>0.59243895877620634</v>
       </c>
       <c r="D11">
-        <v>59780.2</v>
+        <v>77739.000000000015</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,13 +2154,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.52623320104820126</v>
+        <v>0.40163603058931269</v>
       </c>
       <c r="D12">
-        <v>71383</v>
+        <v>71662.399999999994</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2306,13 +2171,13 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.53809273105523303</v>
+        <v>0.6032297137990047</v>
       </c>
       <c r="D13">
-        <v>61714</v>
+        <v>54093</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2323,13 +2188,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.5494468850588512</v>
+        <v>0.42280711214378069</v>
       </c>
       <c r="D14">
-        <v>65581.600000000006</v>
+        <v>64582</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2367,13 +2232,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.83992808894685067</v>
+        <v>0.87169363717700554</v>
       </c>
       <c r="D2">
-        <v>90190.900000000009</v>
+        <v>112226.3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2384,13 +2249,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.83992808894685067</v>
+        <v>0.86794451315928611</v>
       </c>
       <c r="D3">
-        <v>90190.900000000009</v>
+        <v>55606.499999999993</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2401,13 +2266,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.83992808894685067</v>
+        <v>0.79660195747746776</v>
       </c>
       <c r="D4">
-        <v>90190.900000000009</v>
+        <v>50743.9</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,13 +2283,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.83992808894685067</v>
+        <v>0.74214758676560355</v>
       </c>
       <c r="D5">
-        <v>90190.900000000009</v>
+        <v>26664.5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,13 +2300,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.83992808894685067</v>
+        <v>0.81343258723087153</v>
       </c>
       <c r="D6">
-        <v>90190.900000000009</v>
+        <v>27943.9</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2452,13 +2317,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.83992808894685067</v>
+        <v>0.87925896993625063</v>
       </c>
       <c r="D7">
-        <v>90190.900000000009</v>
+        <v>27673.7</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2469,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.83992808894685067</v>
+        <v>0.86732640881028766</v>
       </c>
       <c r="D8">
-        <v>90190.900000000009</v>
+        <v>26754.900000000009</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2486,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.83992808894685067</v>
+        <v>0.80568418153595633</v>
       </c>
       <c r="D9">
-        <v>90190.900000000009</v>
+        <v>14583.7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2503,13 +2368,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.83992808894685067</v>
+        <v>0.81980507766589972</v>
       </c>
       <c r="D10">
-        <v>90190.900000000009</v>
+        <v>14583.7</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.83992808894685067</v>
+        <v>0.82315578149640833</v>
       </c>
       <c r="D11">
-        <v>90190.900000000009</v>
+        <v>13623.3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,13 +2402,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.83992808894685067</v>
+        <v>0.78439966295705199</v>
       </c>
       <c r="D12">
-        <v>90190.900000000009</v>
+        <v>14340.5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2554,13 +2419,13 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.83992808894685067</v>
+        <v>0.76261703780149315</v>
       </c>
       <c r="D13">
-        <v>90190.900000000009</v>
+        <v>14173.9</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2571,13 +2436,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.83992808894685067</v>
+        <v>0.85944796295968517</v>
       </c>
       <c r="D14">
-        <v>90190.900000000009</v>
+        <v>14398.9</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2615,10 +2480,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.88564327019087408</v>
+        <v>0.86710041854657705</v>
       </c>
       <c r="D2">
-        <v>199161.5</v>
+        <v>200544</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2632,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.86601052668063228</v>
+        <v>0.87983768880527491</v>
       </c>
       <c r="D3">
-        <v>114198.8</v>
+        <v>115182.3</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2649,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.88443542298709321</v>
+        <v>0.833963206919626</v>
       </c>
       <c r="D4">
-        <v>77013.899999999994</v>
+        <v>75524.7</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2666,13 +2531,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.88155288709249036</v>
+        <v>0.87066769686756462</v>
       </c>
       <c r="D5">
-        <v>70343.3</v>
+        <v>69791</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2683,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.83622525197369002</v>
+        <v>0.87393086273447362</v>
       </c>
       <c r="D6">
-        <v>49861.599999999999</v>
+        <v>48201.9</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2700,10 +2565,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.86221209013975175</v>
+        <v>0.87249194529012364</v>
       </c>
       <c r="D7">
-        <v>45526.899999999987</v>
+        <v>44470.399999999987</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2717,13 +2582,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.87082130548484871</v>
+        <v>0.89374168954335009</v>
       </c>
       <c r="D8">
-        <v>46173.2</v>
+        <v>48643.199999999997</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2734,13 +2599,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.88840562330051642</v>
+        <v>0.88032679301571282</v>
       </c>
       <c r="D9">
-        <v>47661</v>
+        <v>40997.1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2751,13 +2616,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.8395366314416387</v>
+        <v>0.86545796667889485</v>
       </c>
       <c r="D10">
-        <v>44176.3</v>
+        <v>41058.399999999987</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2768,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.86685376870332087</v>
+        <v>0.90939243667684744</v>
       </c>
       <c r="D11">
-        <v>46468.1</v>
+        <v>34802.699999999997</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,10 +2650,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.87561109990460162</v>
+        <v>0.8733073371689114</v>
       </c>
       <c r="D12">
-        <v>44503.7</v>
+        <v>31675.900000000009</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -2802,10 +2667,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.89463897516891144</v>
+        <v>0.87833513223010018</v>
       </c>
       <c r="D13">
-        <v>45518.399999999987</v>
+        <v>22972.9</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -2819,10 +2684,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.86109800603052744</v>
+        <v>0.84959296920549343</v>
       </c>
       <c r="D14">
-        <v>45158.499999999993</v>
+        <v>22357.200000000001</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -2834,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D5567-3C4A-1C43-AA5F-B756B0FDA0DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AC265-F309-6F44-90AE-81FCC389CC9D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/ml/results/servers=13_vs_time_success=0.90.xlsx
+++ b/ml/results/servers=13_vs_time_success=0.90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zachary/Desktop/Research/projects/mimosa_2022/MIMOSA/ml/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF30A4BD-BB48-3A40-8B60-3D21F5A99D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B5296-8791-6243-800B-56557A283DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>n_servers</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>iters</t>
+  </si>
+  <si>
+    <t>coverage</t>
   </si>
 </sst>
 </file>
@@ -128,6 +131,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t># of Servers vs Average Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -168,7 +196,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ideal</c:v>
+            <c:v>Ideal (97%)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -180,54 +208,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>mimosa!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>ideal!$D$2:$D$14</c:f>
@@ -278,7 +276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CDB-9B42-9B83-11833D94B8F2}"/>
+              <c16:uniqueId val="{00000000-781F-9043-9266-060D84A5F90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -286,7 +284,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Random</c:v>
+            <c:v>Random (46%)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -298,54 +296,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>mimosa!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>random!$D$2:$D$14</c:f>
@@ -353,50 +321,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>321291.40000000008</c:v>
+                  <c:v>276173.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166168.4</c:v>
+                  <c:v>136680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119806.39999999999</c:v>
+                  <c:v>104713.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91285.7</c:v>
+                  <c:v>79138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80672.3</c:v>
+                  <c:v>65603.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76767.400000000009</c:v>
+                  <c:v>63556.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71123.900000000009</c:v>
+                  <c:v>72672.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77834.900000000009</c:v>
+                  <c:v>64937</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71585.500000000015</c:v>
+                  <c:v>72027.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77739.000000000015</c:v>
+                  <c:v>58491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71662.399999999994</c:v>
+                  <c:v>57201.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54093</c:v>
+                  <c:v>58491</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64582</c:v>
+                  <c:v>63647.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1CDB-9B42-9B83-11833D94B8F2}"/>
+              <c16:uniqueId val="{00000001-781F-9043-9266-060D84A5F90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -404,7 +372,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>KotH</c:v>
+            <c:v>KotH (82%)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -416,54 +384,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>mimosa!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>koth!$D$2:$D$14</c:f>
@@ -471,50 +409,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>112226.3</c:v>
+                  <c:v>90190.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55606.499999999993</c:v>
+                  <c:v>45343.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50743.9</c:v>
+                  <c:v>44847.400000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26664.5</c:v>
+                  <c:v>22883.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27943.9</c:v>
+                  <c:v>22883.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27673.7</c:v>
+                  <c:v>22460.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26754.900000000009</c:v>
+                  <c:v>21964.30000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14583.7</c:v>
+                  <c:v>11652.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14583.7</c:v>
+                  <c:v>11652.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13623.3</c:v>
+                  <c:v>11652.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14340.5</c:v>
+                  <c:v>11652.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14173.9</c:v>
+                  <c:v>11230.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14398.9</c:v>
+                  <c:v>11230.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1CDB-9B42-9B83-11833D94B8F2}"/>
+              <c16:uniqueId val="{00000002-781F-9043-9266-060D84A5F90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -522,7 +460,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Mimosa</c:v>
+            <c:v>Mimosa (96%)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -534,54 +472,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>mimosa!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>mimosa!$D$2:$D$14</c:f>
@@ -589,40 +497,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>200544</c:v>
+                  <c:v>202487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115182.3</c:v>
+                  <c:v>116282.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75524.7</c:v>
+                  <c:v>76765.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69791</c:v>
+                  <c:v>69621.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48201.9</c:v>
+                  <c:v>48821.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44470.399999999987</c:v>
+                  <c:v>44990.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48643.199999999997</c:v>
+                  <c:v>47032.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40997.1</c:v>
+                  <c:v>40980.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41058.399999999987</c:v>
+                  <c:v>39130.599999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34802.699999999997</c:v>
+                  <c:v>34416.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31675.900000000009</c:v>
+                  <c:v>31681.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22972.9</c:v>
+                  <c:v>22902.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>22357.200000000001</c:v>
@@ -632,7 +540,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1CDB-9B42-9B83-11833D94B8F2}"/>
+              <c16:uniqueId val="{00000003-781F-9043-9266-060D84A5F90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -646,17 +554,71 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1064750656"/>
-        <c:axId val="1064608368"/>
+        <c:axId val="906517119"/>
+        <c:axId val="648779408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1064750656"/>
+        <c:axId val="906517119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Servers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -693,7 +655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064608368"/>
+        <c:crossAx val="648779408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1064608368"/>
+        <c:axId val="648779408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,6 +683,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Runtime (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -752,7 +769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064750656"/>
+        <c:crossAx val="906517119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,22 +1404,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7742D0-7850-16EA-8551-A9B731681F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC361CA-493C-9A98-8F38-11A468EF4BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,8 +1744,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1744,8 +1764,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1761,8 +1784,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1778,8 +1804,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1795,8 +1824,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1812,8 +1844,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1829,8 +1864,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1846,8 +1884,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1863,8 +1904,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1880,8 +1924,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1897,8 +1944,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1914,8 +1964,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1931,8 +1984,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0.97138184791496318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1947,6 +2003,9 @@
       </c>
       <c r="E14">
         <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.97138184791496318</v>
       </c>
     </row>
   </sheetData>
@@ -1956,13 +2015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +2034,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1984,16 +2046,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.62662322961736949</v>
+        <v>0.55285078430802936</v>
       </c>
       <c r="D2">
-        <v>321291.40000000008</v>
+        <v>276173.2</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.4619787408013083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2001,16 +2066,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.50424252089723576</v>
+        <v>0.55664949918928863</v>
       </c>
       <c r="D3">
-        <v>166168.4</v>
+        <v>136680</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.46361406377759612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2018,16 +2086,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.46550020356613953</v>
+        <v>0.5394934527802584</v>
       </c>
       <c r="D4">
-        <v>119806.39999999999</v>
+        <v>104713.4</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.45789043336058882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2035,16 +2106,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.55968554946365778</v>
+        <v>0.55188224116581686</v>
       </c>
       <c r="D5">
-        <v>91285.7</v>
+        <v>79138</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.47506132461161082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2052,16 +2126,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3856163506262949</v>
+        <v>0.55788859226977594</v>
       </c>
       <c r="D6">
-        <v>80672.3</v>
+        <v>65603.999999999985</v>
       </c>
       <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.47424366312346689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2069,16 +2146,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.55893389273246041</v>
+        <v>0.54515232927933766</v>
       </c>
       <c r="D7">
-        <v>76767.400000000009</v>
+        <v>63556.800000000003</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.455437448896157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2086,16 +2166,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.38248587333914491</v>
+        <v>0.5539846419276695</v>
       </c>
       <c r="D8">
-        <v>71123.900000000009</v>
+        <v>72672.2</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.46606704824202783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2103,16 +2186,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.41308130458302678</v>
+        <v>0.53493056648654125</v>
       </c>
       <c r="D9">
-        <v>77834.900000000009</v>
+        <v>64937</v>
       </c>
       <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.4439901880621423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2120,16 +2206,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.51427557676233882</v>
+        <v>0.55943238501877846</v>
       </c>
       <c r="D10">
-        <v>71585.500000000015</v>
+        <v>72027.600000000006</v>
       </c>
       <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.46852003270645948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2137,16 +2226,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.59243895877620634</v>
+        <v>0.53308136392634509</v>
       </c>
       <c r="D11">
-        <v>77739.000000000015</v>
+        <v>58491</v>
       </c>
       <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.44071954210956671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2154,16 +2246,19 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.40163603058931269</v>
+        <v>0.55229049464668845</v>
       </c>
       <c r="D12">
-        <v>71662.399999999994</v>
+        <v>57201.8</v>
       </c>
       <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.46852003270645948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2171,16 +2266,19 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.6032297137990047</v>
+        <v>0.52854329235693931</v>
       </c>
       <c r="D13">
-        <v>54093</v>
+        <v>58491</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.43581357318070318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2188,13 +2286,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.42280711214378069</v>
+        <v>0.54366924012990991</v>
       </c>
       <c r="D14">
-        <v>64582</v>
+        <v>63647.8</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.45952575633687648</v>
       </c>
     </row>
   </sheetData>
@@ -2204,13 +2305,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,8 +2324,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2232,16 +2336,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.87169363717700554</v>
+        <v>0.83992808894685067</v>
       </c>
       <c r="D2">
-        <v>112226.3</v>
+        <v>90190.900000000009</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2249,16 +2356,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.86794451315928611</v>
+        <v>0.83992808894685145</v>
       </c>
       <c r="D3">
-        <v>55606.499999999993</v>
+        <v>45343.5</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2266,16 +2376,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.79660195747746776</v>
+        <v>0.83992808894685145</v>
       </c>
       <c r="D4">
-        <v>50743.9</v>
+        <v>44847.400000000009</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2283,16 +2396,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.74214758676560355</v>
+        <v>0.83992808894685178</v>
       </c>
       <c r="D5">
-        <v>26664.5</v>
+        <v>22883.1</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2300,16 +2416,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.81343258723087153</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D6">
-        <v>27943.9</v>
+        <v>22883.1</v>
       </c>
       <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2317,16 +2436,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.87925896993625063</v>
+        <v>0.83992808894685178</v>
       </c>
       <c r="D7">
-        <v>27673.7</v>
+        <v>22460.400000000001</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2334,16 +2456,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.86732640881028766</v>
+        <v>0.83992808894685178</v>
       </c>
       <c r="D8">
-        <v>26754.900000000009</v>
+        <v>21964.30000000001</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2351,16 +2476,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.80568418153595633</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D9">
-        <v>14583.7</v>
+        <v>11652.9</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2368,16 +2496,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.81980507766589972</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D10">
-        <v>14583.7</v>
+        <v>11652.9</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2385,16 +2516,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.82315578149640833</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D11">
-        <v>13623.3</v>
+        <v>11652.9</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2402,16 +2536,19 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.78439966295705199</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D12">
-        <v>14340.5</v>
+        <v>11652.9</v>
       </c>
       <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2419,16 +2556,19 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.76261703780149315</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D13">
-        <v>14173.9</v>
+        <v>11230.2</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.8225674570727719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2436,13 +2576,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.85944796295968517</v>
+        <v>0.839928088946852</v>
       </c>
       <c r="D14">
-        <v>14398.9</v>
+        <v>11230.2</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.8225674570727719</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2595,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2471,8 +2614,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2480,16 +2626,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.86710041854657705</v>
+        <v>0.90427118520217065</v>
       </c>
       <c r="D2">
-        <v>200544</v>
+        <v>202487</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0.96647587898609977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2497,16 +2646,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.87983768880527491</v>
+        <v>0.86578125358361391</v>
       </c>
       <c r="D3">
-        <v>115182.3</v>
+        <v>116282.3</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.96320523303352412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2514,16 +2666,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.833963206919626</v>
+        <v>0.85555371256183432</v>
       </c>
       <c r="D4">
-        <v>75524.7</v>
+        <v>76765.8</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.96075224856909236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2531,16 +2686,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.87066769686756462</v>
+        <v>0.86163224694316776</v>
       </c>
       <c r="D5">
-        <v>69791</v>
+        <v>69621.7</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0.96402289452166801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2548,16 +2706,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.87393086273447362</v>
+        <v>0.85578061711706022</v>
       </c>
       <c r="D6">
-        <v>48201.9</v>
+        <v>48821.8</v>
       </c>
       <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.96565821749795588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2565,16 +2726,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.87249194529012364</v>
+        <v>0.90881127364575809</v>
       </c>
       <c r="D7">
-        <v>44470.399999999987</v>
+        <v>44990.1</v>
       </c>
       <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0.96647587898609977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2582,16 +2746,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.89374168954335009</v>
+        <v>0.84029912904657689</v>
       </c>
       <c r="D8">
-        <v>48643.199999999997</v>
+        <v>47032.800000000003</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0.96320523303352412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2599,16 +2766,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.88032679301571282</v>
+        <v>0.87531696035072948</v>
       </c>
       <c r="D9">
-        <v>40997.1</v>
+        <v>40980.300000000003</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.96484055600981189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2616,16 +2786,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.86545796667889485</v>
+        <v>0.86586025643540809</v>
       </c>
       <c r="D10">
-        <v>41058.399999999987</v>
+        <v>39130.599999999991</v>
       </c>
       <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.96238757154538024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2633,16 +2806,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.90939243667684744</v>
+        <v>0.87982145952271973</v>
       </c>
       <c r="D11">
-        <v>34802.699999999997</v>
+        <v>34416.300000000003</v>
       </c>
       <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0.96484055600981189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2650,16 +2826,19 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.8733073371689114</v>
+        <v>0.87066328208689858</v>
       </c>
       <c r="D12">
-        <v>31675.900000000009</v>
+        <v>31681.8</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.96402289452166801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2667,16 +2846,19 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.87833513223010018</v>
+        <v>0.63935021833920347</v>
       </c>
       <c r="D13">
-        <v>22972.9</v>
+        <v>22902.1</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0.96729354047424365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2684,13 +2866,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.84959296920549343</v>
+        <v>0.88051436925815241</v>
       </c>
       <c r="D14">
         <v>22357.200000000001</v>
       </c>
       <c r="E14">
         <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0.96402289452166801</v>
       </c>
     </row>
   </sheetData>
@@ -2699,10 +2884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AC265-F309-6F44-90AE-81FCC389CC9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB980B-6FC0-EA4C-9B2F-F954C1FD402A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
